--- a/pred_ohlcv/54_21/2019-11-01 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 WAX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>499155.7715</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>449632.9091999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>460053.9091999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>439116.9258999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>423807.8987999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>394746.9606999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>376408.0487999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>371407.6305999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>420890.8769999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 WAX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65953.43899999998</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>20368.12529999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>18879.90229999998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>18448.74979999998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>19718.28019999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>39602.46399999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>77629.98799999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>54984.27929999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>52845.08779999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>499155.7715</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>499155.7715</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>498096.0628</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>449632.9091999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>460053.9091999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>440141.1438999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>440120.1438999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>439116.9258999999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>423807.8987999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>394746.9606999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>394757.9606999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>372603.0487999999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>376408.0487999999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>376407.6305999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>371407.6305999999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>422180.8769999999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>422191.8769999999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>420890.8769999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
